--- a/realme/Others/Eid Ul Azha Campaign.xlsx
+++ b/realme/Others/Eid Ul Azha Campaign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="200">
   <si>
     <t>BD101626</t>
   </si>
@@ -585,12 +585,6 @@
     <t xml:space="preserve">Md Robiul Islam </t>
   </si>
   <si>
-    <t>Achivement QTY.</t>
-  </si>
-  <si>
-    <t>Achivement Percentage</t>
-  </si>
-  <si>
     <t>RE Boishakhi Telecom</t>
   </si>
   <si>
@@ -615,13 +609,34 @@
     <t>Mugdho Corporation(Realme Mobile)</t>
   </si>
   <si>
-    <t>RSC</t>
-  </si>
-  <si>
-    <t>GRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Date: 23.08.2021</t>
+    <t>1000(-)</t>
+  </si>
+  <si>
+    <t>2000(+)</t>
+  </si>
+  <si>
+    <t>500(-)</t>
+  </si>
+  <si>
+    <t>RE Bina Mobile</t>
+  </si>
+  <si>
+    <t>RE Usha Electronics</t>
+  </si>
+  <si>
+    <t>RE Moom Telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>1500(-)</t>
+  </si>
+  <si>
+    <t>19000(-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date: 09.09.2021</t>
   </si>
 </sst>
 </file>
@@ -667,7 +682,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +710,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,12 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,6 +859,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2690,85 +2723,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" ht="19.5">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:6" ht="23.25">
+      <c r="A1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5">
-      <c r="A3" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5">
+      <c r="A2" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5">
+      <c r="A3" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="24.95" customHeight="1">
+      <c r="E4" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2778,18 +2795,12 @@
       <c r="C5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="1">
-        <v>80</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="20">
-        <v>10072</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="24.95" customHeight="1">
+      <c r="D5" s="18">
+        <v>7000</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2799,22 +2810,13 @@
       <c r="C6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="1">
-        <v>25</v>
+      <c r="D6" s="18">
+        <v>3000</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="20">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="24.95" customHeight="1">
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2824,24 +2826,13 @@
       <c r="C7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1">
-        <v>27</v>
+      <c r="D7" s="18">
+        <v>3000</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="20">
-        <v>3000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4">
-        <f>F29+F27+F21+F11+F5</f>
-        <v>135489</v>
-      </c>
-      <c r="I7" s="4">
-        <f>F30-H7</f>
-        <v>124677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24.95" customHeight="1">
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2851,18 +2842,15 @@
       <c r="C8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="1">
-        <v>66</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F8" s="20">
-        <v>13311</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="24.95" customHeight="1">
+      <c r="D8" s="18">
+        <v>12056</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2870,18 +2858,14 @@
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="1">
-        <v>16</v>
+        <v>182</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2500</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="20">
-        <v>2500</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="24.95" customHeight="1">
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2891,16 +2875,12 @@
       <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1">
-        <v>27</v>
+      <c r="D10" s="18">
+        <v>3000</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="20">
-        <v>3000</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="24.95" customHeight="1">
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2910,18 +2890,15 @@
       <c r="C11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1">
-        <v>123</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F11" s="20">
-        <v>22255</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1">
+      <c r="D11" s="18">
+        <v>21239</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2931,18 +2908,12 @@
       <c r="C12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1">
-        <v>52</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F12" s="20">
-        <v>9764</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="24.95" customHeight="1">
+      <c r="D12" s="18">
+        <v>9262</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2952,16 +2923,12 @@
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
-        <v>25</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20">
+      <c r="D13" s="18">
         <v>3000</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="24.95" customHeight="1">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2971,18 +2938,15 @@
       <c r="C14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="1">
-        <v>52</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F14" s="20">
-        <v>10340</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="24.95" customHeight="1">
+      <c r="D14" s="18">
+        <v>9091</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2992,16 +2956,12 @@
       <c r="C15" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="1">
-        <v>23</v>
+      <c r="D15" s="18">
+        <v>3000</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="20">
-        <v>3000</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1">
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3011,16 +2971,12 @@
       <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1">
-        <v>21</v>
+      <c r="D16" s="18">
+        <v>2500</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="20">
-        <v>3000</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="17" spans="1:11" ht="24.95" customHeight="1">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3030,18 +2986,15 @@
       <c r="C17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
-        <v>234</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>41262</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1">
+      <c r="D17" s="19">
+        <v>19857</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="24.95" customHeight="1">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3051,16 +3004,12 @@
       <c r="C18" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="1">
-        <v>27</v>
+      <c r="D18" s="18">
+        <v>3000</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="20">
-        <v>3000</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="19" spans="1:11" ht="24.95" customHeight="1">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3070,16 +3019,12 @@
       <c r="C19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="1">
-        <v>21</v>
+      <c r="D19" s="18">
+        <v>2500</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="20">
-        <v>3000</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="20" spans="1:11" ht="24.95" customHeight="1">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3089,16 +3034,12 @@
       <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1">
-        <v>34</v>
+      <c r="D20" s="18">
+        <v>4500</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="20">
-        <v>4500</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="21" spans="1:11" ht="24.95" customHeight="1">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3108,18 +3049,12 @@
       <c r="C21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="1">
-        <v>80</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="20">
-        <v>10062</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1">
+      <c r="D21" s="18">
+        <v>6000</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="24.95" customHeight="1">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3129,16 +3064,12 @@
       <c r="C22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="1">
-        <v>31</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="20">
-        <v>4500</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1">
+      <c r="D22" s="18">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="24.95" customHeight="1">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3148,16 +3079,12 @@
       <c r="C23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="1">
-        <v>34</v>
+      <c r="D23" s="18">
+        <v>4500</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="20">
-        <v>4500</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="24" spans="1:11" ht="24.95" customHeight="1">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3167,16 +3094,12 @@
       <c r="C24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="1">
-        <v>19</v>
+      <c r="D24" s="18">
+        <v>2500</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="20">
-        <v>2500</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="25" spans="1:11" ht="24.95" customHeight="1">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3184,18 +3107,14 @@
         <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="1">
-        <v>19</v>
+        <v>183</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2500</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="20">
-        <v>2500</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="26" spans="1:11" ht="24.95" customHeight="1">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -3205,16 +3124,12 @@
       <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1">
-        <v>19</v>
+      <c r="D26" s="18">
+        <v>2500</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="20">
-        <v>2500</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="27" spans="1:11" ht="24.95" customHeight="1">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -3224,18 +3139,15 @@
       <c r="C27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="1">
-        <v>163</v>
-      </c>
-      <c r="E27" s="18">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F27" s="20">
-        <v>38365</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1">
+      <c r="D27" s="18">
+        <v>36443</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="24.95" customHeight="1">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -3243,18 +3155,17 @@
         <v>341001676</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="1">
-        <v>15</v>
+        <v>185</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2000</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="20">
-        <v>2500</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1">
+      <c r="F28" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="24.95" customHeight="1">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -3264,41 +3175,78 @@
       <c r="C29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="1">
-        <v>205</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="F29" s="20">
-        <v>54735</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="19.5">
-      <c r="A30" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23">
-        <f>SUM(F5:F29)</f>
-        <v>260166</v>
-      </c>
-      <c r="G30" s="4"/>
+      <c r="D29" s="18">
+        <v>47068</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A30" s="27">
+        <v>26</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="29">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A31" s="27">
+        <v>27</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="29">
+        <v>4000</v>
+      </c>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A32" s="27">
+        <v>28</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.5">
+      <c r="A33" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21">
+        <f>SUM(D5:D32)</f>
+        <v>224016</v>
+      </c>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.2" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="84" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
